--- a/theo/outputs/FCX/correlations.xlsx
+++ b/theo/outputs/FCX/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.8829823039519368</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.2357403716229695</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1779886587585985</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.8340407760002418</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.8513051428162315</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.09759831134732515</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.09433648243038344</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5501985841602113</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5348271507438934</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.09759831134732515</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.09433648243038344</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5501985841602113</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5348271507438934</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.1831933780906201</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.1975272362523899</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.08301665209784226</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.8829823039519368</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.2443217182527248</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.1886208872022906</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.9087216457413911</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.9395589795285658</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.0958031195247086</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.09050464299427294</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.5471247052970857</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.5253057871313003</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>0.0377900228749621</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>0.03255594768179872</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.5412034673529843</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.5193114559238204</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.1505774662543363</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>0.1510705670194981</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.04883181755554658</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.2357403716229695</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.2443217182527248</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8540924818871708</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.2178681991812196</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.2522967426526825</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.3163198530609145</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.308476570013952</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.07796822103905007</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.07430288127490743</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.342788098457223</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.3330890447526998</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.04285139210023664</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.0393881324676533</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.478002211551968</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1908035119904276</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9326071421897016</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1779886587585985</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.1886208872022906</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8540924818871708</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.214684154428943</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.1843770952416341</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.3284244656811816</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.3190052025419735</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.08570292941838961</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.08105150547001205</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.3731606331369931</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.3659215464743482</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.06507395246057865</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.06103668601006763</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.0485948247101257</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1421272644783514</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.777528710943573</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.8340407760002418</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.9087216457413911</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.2178681991812196</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.214684154428943</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.8588295476770267</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.08949614111246611</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.08440291109999119</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.4848821611785422</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.4622013760864866</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.07004428189605667</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.06559300478529606</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.4842047008803137</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.4615811447970106</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>0.05583530426064516</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>0.07446658200683508</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.002087627497716912</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.8513051428162315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.9395589795285658</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.2522967426526825</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.1843770952416341</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.8588295476770267</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>0.04990758948912881</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>0.04398625970789421</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>0.2274604312380205</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>0.2024956609537898</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>0.02435255836262593</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>0.02004916783879555</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>0.2276625372627374</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>0.2028023687842681</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1731316942859363</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1878913776691537</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.05973705200540583</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.09759831134732515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.0958031195247086</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.3163198530609145</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.3284244656811816</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.08949614111246611</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>0.04990758948912881</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9985427733547043</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1354453462777287</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1353563008646346</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.03827209856944362</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.0376379942451243</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1334020248649278</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.133545909967356</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.08003763225563476</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.05725131093142285</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.3131151119174194</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.09433648243038344</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.09050464299427294</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.308476570013952</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.3190052025419735</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.08440291109999119</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>0.04398625970789421</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9985427733547043</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1348462683700813</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1351956889369295</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.03674082967615232</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.03632118637840269</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1325823648336285</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1330950126598641</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.08190364574037221</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.05382701509727466</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.3110176279806107</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5501985841602113</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.5471247052970857</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.07796822103905007</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.08570292941838961</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.4848821611785422</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>0.2274604312380205</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1354453462777287</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1348462683700813</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9989771889314116</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.03169712107134254</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.02729206928590794</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9781520876617396</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9765420929299075</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.004995373503929736</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.02968593944474363</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.007159033253140863</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5348271507438934</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.5253057871313003</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.07430288127490743</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.08105150547001205</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.4622013760864866</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>0.2024956609537898</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1353563008646346</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1351956889369295</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9989771889314116</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.03112459259743861</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.02675708464607351</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9770855675842108</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9774588887193264</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.005811738926319894</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.02961521740415309</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.006004206440551343</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.09759831134732515</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>0.0377900228749621</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.342788098457223</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.3731606331369931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.07004428189605667</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>0.02435255836262593</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.03827209856944362</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.03674082967615232</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.03169712107134254</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.03112459259743861</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9985427733547043</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1354453462777287</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1353563008646346</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.07977964983671072</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.001226478411286552</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.3716964101172434</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.09433648243038344</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>0.03255594768179872</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.3330890447526998</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.3659215464743482</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.06559300478529606</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>0.02004916783879555</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.0376379942451243</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.03632118637840269</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.02729206928590794</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.02675708464607351</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9985427733547043</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1348462683700813</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1351956889369295</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.07517023131363337</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.0003195135849615746</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.3677145348834568</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5501985841602113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.5412034673529843</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.04285139210023664</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.06507395246057865</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.4842047008803137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>0.2276625372627374</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1334020248649278</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1325823648336285</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9781520876617396</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9770855675842108</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1354453462777287</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1348462683700813</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9989771889314116</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.01821643136998891</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.02988986285308784</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.03072186318682769</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5348271507438934</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.5193114559238204</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.0393881324676533</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.06103668601006763</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.4615811447970106</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>0.2028023687842681</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.133545909967356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1330950126598641</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9765420929299075</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9774588887193264</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1353563008646346</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1351956889369295</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9989771889314116</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.01817939405756545</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.02960231441047107</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.02942448150111711</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.1831933780906201</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.1505774662543363</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.478002211551968</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.0485948247101257</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>0.05583530426064516</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1731316942859363</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.08003763225563476</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.08190364574037221</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.004995373503929736</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.005811738926319894</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.07977964983671072</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.07517023131363337</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.01821643136998891</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.01817939405756545</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.6064294608630225</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4778814915433341</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.1975272362523899</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>0.1510705670194981</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1908035119904276</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1421272644783514</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>0.07446658200683508</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1878913776691537</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.05725131093142285</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.05382701509727466</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.02968593944474363</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.02961521740415309</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.001226478411286552</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.0003195135849615746</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.02988986285308784</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.02960231441047107</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.6064294608630225</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.1908639792324866</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.08301665209784226</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.04883181755554658</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9326071421897016</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.777528710943573</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.002087627497716912</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.05973705200540583</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.3131151119174194</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.3110176279806107</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.007159033253140863</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.006004206440551343</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.3716964101172434</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.3677145348834568</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.03072186318682769</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.02942448150111711</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.4778814915433341</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.1908639792324866</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>0.5006677151864626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.04326903640737327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.07189524902368231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.3060858825330589</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>0.4065458856114309</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.03240559429557641</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02821340807488769</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2291105489821537</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.2063770142089285</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.03240559429557641</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02821340807488769</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2291105489821537</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.2063770142089285</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.01880256511664093</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.04013114854950182</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.000664279602720905</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>0.5006677151864626</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.09458358625486492</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.0449505182933097</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.1546717525315975</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8928869186238347</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.08240501594317072</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.0772930987239111</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.47859357321544</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.4531180247818019</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>0.0009978687259713846</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.004054350685327526</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.4653980291398946</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.4397671152564172</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.05062384950994379</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.04228373361818839</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.01849453015010448</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.04326903640737327</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.09458358625486492</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.5055263133671414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.02565643168514144</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.08384925542622491</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.1178123707890103</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.1159644871561388</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>0.0459632054290821</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>0.04588790619740633</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1992623249023102</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.199468168589608</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.03733164044480654</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.03712885592009268</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.507300138135919</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.3186198154162977</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9390165064156177</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.07189524902368231</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.0449505182933097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.5055263133671414</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2354634866990858</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>0.06660351639943062</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1286679722056654</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1266734824395633</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>-0.03009848856363545</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>-0.03144661569766961</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.1477777701009201</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.1480195069254096</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.01897121600165147</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.02029406463352206</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.4870907469494847</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1098462512510962</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.353544237331178</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.3060858825330589</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.1546717525315975</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.02565643168514144</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2354634866990858</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>0.2828613358832457</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.04005402024982753</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.0415550352903459</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.2082475048989249</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.217178473399781</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.01949697217795683</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.01983946298672334</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.2044066027524108</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.2131150096277692</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.2092093383060862</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1763440452226684</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1230618096011916</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>0.4065458856114309</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8928869186238347</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.08384925542622491</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>0.06660351639943062</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>0.2828613358832457</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>0.0006472462458625632</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.005053310588112447</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>0.0319667906008758</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>0.003460137171306163</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-9.71539179110575e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.004136231909778254</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>0.03277464884927547</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>0.004453899729755481</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.01835046492761279</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.007546474833220702</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.004508062231021805</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.03240559429557641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.08240501594317072</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.1178123707890103</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1286679722056654</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.04005402024982753</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>0.0006472462458625632</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9990556715651095</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1755211827637679</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1764083113101947</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.03061942298073839</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.03089424326703262</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1702687120516318</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1711778859350171</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.008322694042526292</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>0.03377447138860023</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.08514042304635268</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02821340807488769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.0772930987239111</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.1159644871561388</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1266734824395633</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.0415550352903459</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.005053310588112447</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9990556715651095</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1744375279023491</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1756642510699102</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.03055551233915442</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.03094437188604199</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1692601589091933</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1704798747612939</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.008190968301790282</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>0.03703902177286449</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.08436919458358917</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2291105489821537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.47859357321544</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>0.0459632054290821</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>-0.03009848856363545</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.2082475048989249</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>0.0319667906008758</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1755211827637679</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1744375279023491</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9990391667714034</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.0138708467314145</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01124536697086995</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9700669421069885</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9687399789713768</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>0.07658684392363801</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>0.07914179250058903</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.04984292737686143</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.2063770142089285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.4531180247818019</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>0.04588790619740633</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>-0.03144661569766961</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.217178473399781</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>0.003460137171306163</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1764083113101947</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1756642510699102</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9990391667714034</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01292274546109103</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01042719659903842</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9687997567463349</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9693471579891101</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>0.07785712425302352</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>0.08171088985889011</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.05147136957012823</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.03240559429557641</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>0.0009978687259713846</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1992623249023102</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.1477777701009201</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.01949697217795683</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-9.71539179110575e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.03061942298073839</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.03055551233915442</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.0138708467314145</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01292274546109103</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9990556715651095</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1755211827637679</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1764083113101947</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.03064424432944965</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.03093291620389875</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1319973454924915</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02821340807488769</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.004054350685327526</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.199468168589608</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.1480195069254096</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.01983946298672334</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.004136231909778254</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.03089424326703262</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.03094437188604199</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01124536697086995</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01042719659903842</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9990556715651095</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1744375279023491</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1756642510699102</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.02904581990853508</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.03186401592517676</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1309664755006326</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2291105489821537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.4653980291398946</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.03733164044480654</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.01897121600165147</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.2044066027524108</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>0.03277464884927547</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1702687120516318</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1692601589091933</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9700669421069885</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9687997567463349</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1755211827637679</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1744375279023491</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9990391667714034</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>0.05230891267188428</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>0.08077911731501056</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.02822121677239567</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.2063770142089285</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.4397671152564172</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.03712885592009268</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.02029406463352206</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.2131150096277692</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>0.004453899729755481</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1711778859350171</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1704798747612939</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9687399789713768</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9693471579891101</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1764083113101947</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1756642510699102</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9990391667714034</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>0.05296496793157873</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>0.08355074933526464</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.0289071368724013</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.01880256511664093</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.05062384950994379</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.507300138135919</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.4870907469494847</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.2092093383060862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.01835046492761279</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.008322694042526292</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.008190968301790282</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>0.07658684392363801</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>0.07785712425302352</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.03064424432944965</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.02904581990853508</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>0.05230891267188428</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>0.05296496793157873</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4322257266849878</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5973702398324315</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.04013114854950182</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.04228373361818839</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.3186198154162977</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1098462512510962</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1763440452226684</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.007546474833220702</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>0.03377447138860023</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>0.03703902177286449</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>0.07914179250058903</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>0.08171088985889011</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.03093291620389875</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.03186401592517676</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>0.08077911731501056</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>0.08355074933526464</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4322257266849878</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.3745608552341582</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.000664279602720905</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.01849453015010448</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9390165064156177</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.353544237331178</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1230618096011916</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.004508062231021805</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.08514042304635268</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.08436919458358917</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.04984292737686143</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.05147136957012823</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1319973454924915</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1309664755006326</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.02822121677239567</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.0289071368724013</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5973702398324315</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.3745608552341582</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.9088063503207606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1367216946884484</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1449821550665017</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5427196811023359</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.9038187073161527</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.01454442173096721</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.009694179233994106</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.09499439784798609</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.0667447000397965</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.01454442173096721</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.009694179233994106</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.09499439784798609</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.0667447000397965</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.01257938860372676</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.02341527544609515</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.02469335136566692</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.9088063503207606</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1065394586943995</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1191432450373849</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.4447922143129959</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9767116664583831</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03418748634538949</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02856489764816417</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1930700609256533</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1608565759920775</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.003840417573635073</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.009159485238742856</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1864822952219159</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1543274424503366</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.01748072294552509</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.03289482253851155</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.02692845009457965</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1367216946884484</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1065394586943995</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6298914406731052</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.09195763695872809</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1160367402239898</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.07962582053526973</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.07771737889324509</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>0.04421234784153455</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.04269850708536951</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.07259268406666758</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.06933941102804762</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.03401649247614905</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.0324441484736394</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4277275301955791</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2888974673968613</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8984984493104133</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1449821550665017</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1191432450373849</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6298914406731052</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2650160227464435</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.1145358887090582</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.0181719087144822</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.01201051667523174</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.0313841406276759</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.02850365672980743</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.09762523905819001</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.09596252268901233</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>-0.029260180836453</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>-0.02828112892243176</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4326280157784389</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1647863860410708</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.4457440874588467</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5427196811023359</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.4447922143129959</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.09195763695872809</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2650160227464435</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4321259782058479</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>-0.01844062790765232</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>-0.01519407490151101</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>-0.09642969114937122</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>-0.08079776635323707</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.00968632615690186</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.006369202567025616</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>-0.09489240263291494</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>-0.07926262267829856</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.2016826841871223</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1885169056360682</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1341963412376727</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.9038187073161527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9767116664583831</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1160367402239898</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.1145358887090582</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4321259782058479</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.00359186847060739</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.008975514036903286</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.021945441545323</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.05297092690379765</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.002479833333823966</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.007254208578329593</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.02166028917813315</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.05260195016737072</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.001397818475498397</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.008463622083676941</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.01658463588123555</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.01454442173096721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03418748634538949</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.07962582053526973</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.0181719087144822</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>-0.01844062790765232</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.00359186847060739</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9919372618418036</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1749006143561079</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1728902739606201</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.0347557558903149</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.03252244057032543</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1701217022511212</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1685027910161289</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>0.07112517764073864</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.02572217360626557</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.06994344790099952</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.009694179233994106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02856489764816417</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.07771737889324509</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.01201051667523174</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>-0.01519407490151101</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.008975514036903286</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9919372618418036</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.17308344422018</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1738168066801197</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.03262226220003644</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.03070365186207967</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1686577848019599</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1697113838429542</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>0.07600048089121263</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.02639791523590216</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.06817427365849547</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.09499439784798609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1930700609256533</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>0.04421234784153455</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.0313841406276759</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>-0.09642969114937122</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.021945441545323</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1749006143561079</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.17308344422018</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9917784349930319</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.00437222737248434</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.006864018399735048</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9679434606635703</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.959711377930293</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>0.08784663511717536</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.1145738644390846</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>0.04963442817022273</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.0667447000397965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1608565759920775</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.04269850708536951</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.02850365672980743</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>-0.08079776635323707</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.05297092690379765</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1728902739606201</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1738168066801197</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9917784349930319</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.005009190330278643</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.007351465466271788</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9598386451184535</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.967584292471002</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>0.08273705001620889</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.1114889278465692</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>0.04626590074272719</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.01454442173096721</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.003840417573635073</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.07259268406666758</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.09762523905819001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.00968632615690186</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.002479833333823966</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.0347557558903149</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.03262226220003644</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.00437222737248434</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.005009190330278643</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9919372618418036</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1749006143561079</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1728902739606201</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.03075687733595077</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.007108140495351942</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.07788388075841582</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.009694179233994106</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.009159485238742856</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.06933941102804762</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.09596252268901233</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.006369202567025616</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.007254208578329593</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.03252244057032543</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.03070365186207967</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.006864018399735048</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.007351465466271788</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9919372618418036</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.17308344422018</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1738168066801197</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.03299108425379568</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.007894534230806627</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.0724283605020685</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.09499439784798609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1864822952219159</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.03401649247614905</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>-0.029260180836453</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>-0.09489240263291494</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.02166028917813315</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1701217022511212</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1686577848019599</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9679434606635703</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9598386451184535</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1749006143561079</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.17308344422018</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9917784349930319</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>0.07304610716301027</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.1134150655017576</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>0.03918665806742253</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.0667447000397965</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1543274424503366</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.0324441484736394</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>-0.02828112892243176</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>-0.07926262267829856</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.05260195016737072</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1685027910161289</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1697113838429542</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.959711377930293</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.967584292471002</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1728902739606201</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1738168066801197</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9917784349930319</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>0.0699751223489493</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.1104614018682816</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>0.03613420516035747</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.01257938860372676</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.01748072294552509</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4277275301955791</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4326280157784389</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.2016826841871223</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.001397818475498397</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>0.07112517764073864</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>0.07600048089121263</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>0.08784663511717536</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>0.08273705001620889</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.03075687733595077</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.03299108425379568</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>0.07304610716301027</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>0.0699751223489493</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.5271308933301343</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5242162999457687</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.02341527544609515</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.03289482253851155</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2888974673968613</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1647863860410708</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1885169056360682</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.008463622083676941</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.02572217360626557</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.02639791523590216</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.1145738644390846</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.1114889278465692</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.007108140495351942</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.007894534230806627</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.1134150655017576</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.1104614018682816</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.5271308933301343</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3522754165377635</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.02469335136566692</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.02692845009457965</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8984984493104133</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.4457440874588467</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1341963412376727</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.01658463588123555</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.06994344790099952</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.06817427365849547</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>0.04963442817022273</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>0.04626590074272719</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.07788388075841582</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.0724283605020685</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>0.03918665806742253</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>0.03613420516035747</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5242162999457687</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3522754165377635</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
